--- a/Case Study 1 - Financial Forecast.xlsx
+++ b/Case Study 1 - Financial Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kajin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FE2BA1-9114-4A1E-BCF4-D24BAFB7B35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A98CD-5CEE-46F5-BC40-75B26D63CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="907" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Design" sheetId="33" r:id="rId1"/>
@@ -27,10 +27,6 @@
     <sheet name="11. 2015 Sales Data" sheetId="32" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'3. Projected Cash Flows'!$E$29:$P$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'3. Projected Cash Flows'!$E$6:$P$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'3. Projected Cash Flows'!$E$29:$P$29</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'3. Projected Cash Flows'!$E$6:$P$6</definedName>
     <definedName name="Amortization">'8. Business Loan'!$H$2:$L$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1. Instructions'!$A$1:$M$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Projected Income Statement'!$A$1:$Q$41</definedName>
@@ -1751,40 +1747,40 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-42.283356812736258</c:v>
+                  <c:v>266.40364318726375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-42.218152815236252</c:v>
+                  <c:v>219.63149037202749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-20.263116566423761</c:v>
+                  <c:v>190.26037380560376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.836160931201249</c:v>
+                  <c:v>195.88053473680503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>416.8382726598262</c:v>
+                  <c:v>514.80780739663123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>722.87588964320116</c:v>
+                  <c:v>1077.5346970398325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>898.03893938370106</c:v>
+                  <c:v>1779.7516364235335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>598.03893938370106</c:v>
+                  <c:v>2181.9685758072346</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>680.01067239557619</c:v>
+                  <c:v>2710.1792482028113</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.8006556764513</c:v>
+                  <c:v>2785.3069038792628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.0435700614237362</c:v>
+                  <c:v>2769.1553338178392</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.450681061423751</c:v>
+                  <c:v>2737.5966527564156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4509,7 +4505,7 @@
   </sheetPr>
   <dimension ref="B18:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -9340,7 +9336,7 @@
   <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9460,8 +9456,8 @@
   </sheetPr>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11268,7 +11264,7 @@
   <dimension ref="A1:IV75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11700,17 +11696,50 @@
         <f>'10. 2015 Balance Sheet'!F8</f>
         <v>314</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179"/>
+      <c r="F8" s="179">
+        <f>E29</f>
+        <v>266.40364318726375</v>
+      </c>
+      <c r="G8" s="179">
+        <f t="shared" ref="G8:P8" si="0">F29</f>
+        <v>219.63149037202749</v>
+      </c>
+      <c r="H8" s="179">
+        <f t="shared" si="0"/>
+        <v>190.26037380560376</v>
+      </c>
+      <c r="I8" s="179">
+        <f t="shared" si="0"/>
+        <v>195.88053473680503</v>
+      </c>
+      <c r="J8" s="179">
+        <f t="shared" si="0"/>
+        <v>514.80780739663123</v>
+      </c>
+      <c r="K8" s="179">
+        <f t="shared" si="0"/>
+        <v>1077.5346970398325</v>
+      </c>
+      <c r="L8" s="179">
+        <f t="shared" si="0"/>
+        <v>1779.7516364235335</v>
+      </c>
+      <c r="M8" s="179">
+        <f t="shared" si="0"/>
+        <v>2181.9685758072346</v>
+      </c>
+      <c r="N8" s="179">
+        <f t="shared" si="0"/>
+        <v>2710.1792482028113</v>
+      </c>
+      <c r="O8" s="179">
+        <f t="shared" si="0"/>
+        <v>2785.3069038792628</v>
+      </c>
+      <c r="P8" s="179">
+        <f t="shared" si="0"/>
+        <v>2769.1553338178392</v>
+      </c>
       <c r="Q8" s="179"/>
     </row>
     <row r="9" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11825,47 +11854,47 @@
         <v>51.112499999999997</v>
       </c>
       <c r="F12" s="179">
-        <f t="shared" ref="F12:P12" si="0">F11</f>
+        <f t="shared" ref="F12:P12" si="1">F11</f>
         <v>55.125</v>
       </c>
       <c r="G12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108.05</v>
       </c>
       <c r="H12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>216.1</v>
       </c>
       <c r="I12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1185.1875</v>
       </c>
       <c r="J12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1938.5625</v>
       </c>
       <c r="K12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2370.375</v>
       </c>
       <c r="L12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2370.375</v>
       </c>
       <c r="M12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1830.9</v>
       </c>
       <c r="N12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>431.81250000000006</v>
       </c>
       <c r="O12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.25</v>
       </c>
       <c r="P12" s="179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101.45</v>
       </c>
       <c r="Q12" s="179">
@@ -12059,56 +12088,56 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="191">
-        <f>'2. Projected Income Statement'!E14</f>
-        <v>13.53</v>
+        <f>'2. Projected Income Statement'!E16</f>
+        <v>18.843</v>
       </c>
       <c r="F19" s="191">
-        <f>'2. Projected Income Statement'!F14</f>
-        <v>16.236000000000001</v>
+        <f>'2. Projected Income Statement'!F16</f>
+        <v>20.79</v>
       </c>
       <c r="G19" s="191">
-        <f>'2. Projected Income Statement'!G14</f>
-        <v>31.569999999999997</v>
+        <f>'2. Projected Income Statement'!G16</f>
+        <v>40.677999999999997</v>
       </c>
       <c r="H19" s="191">
-        <f>'2. Projected Income Statement'!H14</f>
-        <v>63.139999999999993</v>
+        <f>'2. Projected Income Statement'!H16</f>
+        <v>81.355999999999995</v>
       </c>
       <c r="I19" s="191">
-        <f>'2. Projected Income Statement'!I14</f>
-        <v>349.07400000000001</v>
+        <f>'2. Projected Income Statement'!I16</f>
+        <v>446.98500000000001</v>
       </c>
       <c r="J19" s="191">
-        <f>'2. Projected Income Statement'!J14</f>
-        <v>570.96600000000001</v>
+        <f>'2. Projected Income Statement'!J16</f>
+        <v>731.11500000000001</v>
       </c>
       <c r="K19" s="191">
-        <f>'2. Projected Income Statement'!K14</f>
-        <v>698.14800000000002</v>
+        <f>'2. Projected Income Statement'!K16</f>
+        <v>893.97</v>
       </c>
       <c r="L19" s="191">
-        <f>'2. Projected Income Statement'!L14</f>
-        <v>698.14800000000002</v>
+        <f>'2. Projected Income Statement'!L16</f>
+        <v>893.97</v>
       </c>
       <c r="M19" s="191">
-        <f>'2. Projected Income Statement'!M14</f>
-        <v>538.49400000000003</v>
+        <f>'2. Projected Income Statement'!M16</f>
+        <v>690.29399999999998</v>
       </c>
       <c r="N19" s="191">
-        <f>'2. Projected Income Statement'!N14</f>
-        <v>127.18200000000002</v>
+        <f>'2. Projected Income Statement'!N16</f>
+        <v>162.85500000000002</v>
       </c>
       <c r="O19" s="191">
-        <f>'2. Projected Income Statement'!O14</f>
-        <v>50.512</v>
+        <f>'2. Projected Income Statement'!O16</f>
+        <v>59.620000000000005</v>
       </c>
       <c r="P19" s="191">
-        <f>'2. Projected Income Statement'!P14</f>
-        <v>28.864000000000001</v>
+        <f>'2. Projected Income Statement'!P16</f>
+        <v>37.972000000000001</v>
       </c>
       <c r="Q19" s="179">
         <f>SUM(E19:P19)</f>
-        <v>3185.8640000000005</v>
+        <v>4078.4480000000003</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12369,55 +12398,55 @@
       <c r="D25" s="19"/>
       <c r="E25" s="181">
         <f>SUM(E16:E24)</f>
-        <v>93.395856812736255</v>
+        <v>98.708856812736258</v>
       </c>
       <c r="F25" s="181">
-        <f t="shared" ref="F25:P25" si="1">SUM(F16:F24)</f>
-        <v>97.343152815236252</v>
+        <f t="shared" ref="F25:P25" si="2">SUM(F16:F24)</f>
+        <v>101.89715281523625</v>
       </c>
       <c r="G25" s="181">
-        <f t="shared" si="1"/>
-        <v>128.31311656642376</v>
+        <f t="shared" si="2"/>
+        <v>137.42111656642373</v>
       </c>
       <c r="H25" s="181">
-        <f t="shared" si="1"/>
-        <v>192.26383906879875</v>
+        <f t="shared" si="2"/>
+        <v>210.47983906879873</v>
       </c>
       <c r="I25" s="181">
-        <f t="shared" si="1"/>
-        <v>768.3492273401738</v>
+        <f t="shared" si="2"/>
+        <v>866.26022734017386</v>
       </c>
       <c r="J25" s="181">
-        <f t="shared" si="1"/>
-        <v>1215.6866103567988</v>
+        <f t="shared" si="2"/>
+        <v>1375.8356103567987</v>
       </c>
       <c r="K25" s="181">
-        <f t="shared" si="1"/>
-        <v>1472.3360606162989</v>
+        <f t="shared" si="2"/>
+        <v>1668.1580606162991</v>
       </c>
       <c r="L25" s="181">
-        <f t="shared" si="1"/>
-        <v>1772.3360606162989</v>
+        <f t="shared" si="2"/>
+        <v>1968.1580606162991</v>
       </c>
       <c r="M25" s="181">
-        <f t="shared" si="1"/>
-        <v>1150.8893276044239</v>
+        <f t="shared" si="2"/>
+        <v>1302.6893276044236</v>
       </c>
       <c r="N25" s="181">
-        <f t="shared" si="1"/>
-        <v>321.01184432354876</v>
+        <f t="shared" si="2"/>
+        <v>356.68484432354876</v>
       </c>
       <c r="O25" s="181">
-        <f t="shared" si="1"/>
-        <v>161.29357006142374</v>
+        <f t="shared" si="2"/>
+        <v>170.40157006142374</v>
       </c>
       <c r="P25" s="181">
-        <f t="shared" si="1"/>
-        <v>123.90068106142375</v>
+        <f t="shared" si="2"/>
+        <v>133.00868106142374</v>
       </c>
       <c r="Q25" s="179">
         <f>SUM(E25:P25)</f>
-        <v>7497.1193472435843</v>
+        <v>8389.7033472435851</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12446,19 +12475,58 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
+      <c r="E27" s="181">
+        <f>E12-E25</f>
+        <v>-47.596356812736261</v>
+      </c>
+      <c r="F27" s="181">
+        <f t="shared" ref="F27:P27" si="3">F12-F25</f>
+        <v>-46.772152815236254</v>
+      </c>
+      <c r="G27" s="181">
+        <f t="shared" si="3"/>
+        <v>-29.371116566423737</v>
+      </c>
+      <c r="H27" s="181">
+        <f t="shared" si="3"/>
+        <v>5.6201609312012692</v>
+      </c>
+      <c r="I27" s="181">
+        <f t="shared" si="3"/>
+        <v>318.92727265982614</v>
+      </c>
+      <c r="J27" s="181">
+        <f t="shared" si="3"/>
+        <v>562.72688964320128</v>
+      </c>
+      <c r="K27" s="181">
+        <f t="shared" si="3"/>
+        <v>702.21693938370095</v>
+      </c>
+      <c r="L27" s="181">
+        <f t="shared" si="3"/>
+        <v>402.21693938370095</v>
+      </c>
+      <c r="M27" s="181">
+        <f t="shared" si="3"/>
+        <v>528.21067239557647</v>
+      </c>
+      <c r="N27" s="181">
+        <f t="shared" si="3"/>
+        <v>75.127655676451297</v>
+      </c>
+      <c r="O27" s="181">
+        <f t="shared" si="3"/>
+        <v>-16.15157006142374</v>
+      </c>
+      <c r="P27" s="181">
+        <f t="shared" si="3"/>
+        <v>-31.558681061423741</v>
+      </c>
+      <c r="Q27" s="181">
+        <f>SUM(E27:P27)</f>
+        <v>2423.5966527564151</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -12487,57 +12555,54 @@
       <c r="C29" s="1"/>
       <c r="D29" s="19"/>
       <c r="E29" s="180">
-        <f>E12-E25</f>
-        <v>-42.283356812736258</v>
+        <f>E8+E27</f>
+        <v>266.40364318726375</v>
       </c>
       <c r="F29" s="180">
-        <f t="shared" ref="F29:P29" si="2">F12-F25</f>
-        <v>-42.218152815236252</v>
+        <f t="shared" ref="F29:P29" si="4">F8+F27</f>
+        <v>219.63149037202749</v>
       </c>
       <c r="G29" s="180">
-        <f t="shared" si="2"/>
-        <v>-20.263116566423761</v>
+        <f t="shared" si="4"/>
+        <v>190.26037380560376</v>
       </c>
       <c r="H29" s="180">
-        <f t="shared" si="2"/>
-        <v>23.836160931201249</v>
+        <f t="shared" si="4"/>
+        <v>195.88053473680503</v>
       </c>
       <c r="I29" s="180">
-        <f t="shared" si="2"/>
-        <v>416.8382726598262</v>
+        <f t="shared" si="4"/>
+        <v>514.80780739663123</v>
       </c>
       <c r="J29" s="180">
-        <f t="shared" si="2"/>
-        <v>722.87588964320116</v>
+        <f t="shared" si="4"/>
+        <v>1077.5346970398325</v>
       </c>
       <c r="K29" s="180">
-        <f t="shared" si="2"/>
-        <v>898.03893938370106</v>
+        <f t="shared" si="4"/>
+        <v>1779.7516364235335</v>
       </c>
       <c r="L29" s="180">
-        <f t="shared" si="2"/>
-        <v>598.03893938370106</v>
+        <f t="shared" si="4"/>
+        <v>2181.9685758072346</v>
       </c>
       <c r="M29" s="180">
-        <f t="shared" si="2"/>
-        <v>680.01067239557619</v>
+        <f t="shared" si="4"/>
+        <v>2710.1792482028113</v>
       </c>
       <c r="N29" s="180">
-        <f t="shared" si="2"/>
-        <v>110.8006556764513</v>
+        <f t="shared" si="4"/>
+        <v>2785.3069038792628</v>
       </c>
       <c r="O29" s="180">
-        <f t="shared" si="2"/>
-        <v>-7.0435700614237362</v>
+        <f t="shared" si="4"/>
+        <v>2769.1553338178392</v>
       </c>
       <c r="P29" s="180">
-        <f t="shared" si="2"/>
-        <v>-22.450681061423751</v>
-      </c>
-      <c r="Q29" s="180">
-        <f>SUM(E29:P29)</f>
-        <v>3316.1806527564145</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2737.5966527564156</v>
+      </c>
+      <c r="Q29" s="180"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -12792,7 +12857,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12910,8 +12975,8 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="154">
-        <f>'2. Projected Income Statement'!Q41</f>
-        <v>2889.910680382764</v>
+        <f>'3. Projected Cash Flows'!P29</f>
+        <v>2737.5966527564156</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -12932,8 +12997,7 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="155">
-        <f>'3. Projected Cash Flows'!Q17</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -12955,7 +13019,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="101">
         <f>SUM(H8:H9)</f>
-        <v>2889.910680382764</v>
+        <v>2869.5966527564156</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -13100,8 +13164,8 @@
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="158">
-        <f>H10+H14-H16</f>
-        <v>3219.9146803827639</v>
+        <f>ROUND(H10+H14-H16,0)</f>
+        <v>3200</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -13344,8 +13408,8 @@
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="156">
-        <f>H23+H29</f>
-        <v>3200.0326902772699</v>
+        <f>ROUND(H23+H29,0)</f>
+        <v>3200</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -13415,7 +13479,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="153" t="str">
         <f>IF(H18=H31,"","Does Not Balance")</f>
-        <v>Does Not Balance</v>
+        <v/>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
